--- a/src/main/java/BUS/Excel/sp.xlsx
+++ b/src/main/java/BUS/Excel/sp.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MainProjectJava\SieuThiMini\src\main\java\BUS\Excel\"/>
     </mc:Choice>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="179">
   <si>
     <t>Fanta Cam</t>
   </si>
@@ -568,6 +568,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -887,12 +888,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="11.21875" customWidth="1"/>
+    <col min="3" max="3" customWidth="true" width="11.21875" collapsed="false"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1">
-        <v>1</v>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>1.0</v>
       </c>
       <c r="B1" t="s">
         <v>160</v>
@@ -900,25 +901,25 @@
       <c r="C1" t="s">
         <v>161</v>
       </c>
-      <c r="D1">
-        <v>100</v>
+      <c r="D1" t="n">
+        <v>30.0</v>
       </c>
       <c r="E1" t="s">
         <v>162</v>
       </c>
-      <c r="F1">
-        <v>12600</v>
-      </c>
-      <c r="G1">
-        <v>1</v>
-      </c>
-      <c r="H1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>2</v>
+      <c r="F1" t="n">
+        <v>10600.0</v>
+      </c>
+      <c r="G1" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H1" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2.0</v>
       </c>
       <c r="B2" t="s">
         <v>159</v>
@@ -926,25 +927,25 @@
       <c r="C2" t="s">
         <v>105</v>
       </c>
-      <c r="D2">
-        <v>100</v>
+      <c r="D2" t="n">
+        <v>50.0</v>
       </c>
       <c r="E2" t="s">
         <v>106</v>
       </c>
-      <c r="F2">
-        <v>8800</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>3</v>
+      <c r="F2" t="n">
+        <v>8800.0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>3.0</v>
       </c>
       <c r="B3" t="s">
         <v>107</v>
@@ -952,25 +953,25 @@
       <c r="C3" t="s">
         <v>108</v>
       </c>
-      <c r="D3">
-        <v>100</v>
+      <c r="D3" t="n">
+        <v>100.0</v>
       </c>
       <c r="E3" t="s">
         <v>109</v>
       </c>
-      <c r="F3">
-        <v>10500</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>4</v>
+      <c r="F3" t="n">
+        <v>10500.0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>4.0</v>
       </c>
       <c r="B4" t="s">
         <v>0</v>
@@ -978,25 +979,25 @@
       <c r="C4" t="s">
         <v>110</v>
       </c>
-      <c r="D4">
-        <v>100</v>
+      <c r="D4" t="n">
+        <v>20.0</v>
       </c>
       <c r="E4" t="s">
         <v>0</v>
       </c>
-      <c r="F4">
-        <v>8800</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>5</v>
+      <c r="F4" t="n">
+        <v>8800.0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5.0</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
@@ -1004,25 +1005,25 @@
       <c r="C5" t="s">
         <v>111</v>
       </c>
-      <c r="D5">
-        <v>100</v>
+      <c r="D5" t="n">
+        <v>30.0</v>
       </c>
       <c r="E5" t="s">
         <v>2</v>
       </c>
-      <c r="F5">
-        <v>8800</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>6</v>
+      <c r="F5" t="n">
+        <v>8800.0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>6.0</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
@@ -1030,25 +1031,25 @@
       <c r="C6" t="s">
         <v>112</v>
       </c>
-      <c r="D6">
-        <v>100</v>
+      <c r="D6" t="n">
+        <v>15.0</v>
       </c>
       <c r="E6" t="s">
         <v>4</v>
       </c>
-      <c r="F6">
-        <v>11000</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>7</v>
+      <c r="F6" t="n">
+        <v>11000.0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>7.0</v>
       </c>
       <c r="B7" t="s">
         <v>5</v>
@@ -1056,25 +1057,25 @@
       <c r="C7" t="s">
         <v>113</v>
       </c>
-      <c r="D7">
-        <v>100</v>
+      <c r="D7" t="n">
+        <v>22.0</v>
       </c>
       <c r="E7" t="s">
         <v>6</v>
       </c>
-      <c r="F7">
-        <v>8400</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>8</v>
+      <c r="F7" t="n">
+        <v>8400.0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>8.0</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
@@ -1082,25 +1083,25 @@
       <c r="C8" t="s">
         <v>114</v>
       </c>
-      <c r="D8">
-        <v>100</v>
+      <c r="D8" t="n">
+        <v>27.0</v>
       </c>
       <c r="E8" t="s">
         <v>7</v>
       </c>
-      <c r="F8">
-        <v>6800</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>9</v>
+      <c r="F8" t="n">
+        <v>6800.0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>9.0</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
@@ -1108,25 +1109,25 @@
       <c r="C9" t="s">
         <v>115</v>
       </c>
-      <c r="D9">
-        <v>100</v>
+      <c r="D9" t="n">
+        <v>150.0</v>
       </c>
       <c r="E9" t="s">
         <v>9</v>
       </c>
-      <c r="F9">
-        <v>4600</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>10</v>
+      <c r="F9" t="n">
+        <v>4600.0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>4.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>10.0</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
@@ -1134,25 +1135,25 @@
       <c r="C10" t="s">
         <v>116</v>
       </c>
-      <c r="D10">
-        <v>100</v>
+      <c r="D10" t="n">
+        <v>200.0</v>
       </c>
       <c r="E10" t="s">
         <v>10</v>
       </c>
-      <c r="F10">
-        <v>4300</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>11</v>
+      <c r="F10" t="n">
+        <v>4300.0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>11.0</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
@@ -1160,25 +1161,25 @@
       <c r="C11" t="s">
         <v>117</v>
       </c>
-      <c r="D11">
-        <v>100</v>
+      <c r="D11" t="n">
+        <v>19.0</v>
       </c>
       <c r="E11" t="s">
         <v>12</v>
       </c>
-      <c r="F11">
-        <v>9300</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="H11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>12</v>
+      <c r="F11" t="n">
+        <v>9300.0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>12.0</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
@@ -1186,25 +1187,25 @@
       <c r="C12" t="s">
         <v>118</v>
       </c>
-      <c r="D12">
-        <v>100</v>
+      <c r="D12" t="n">
+        <v>300.0</v>
       </c>
       <c r="E12" t="s">
         <v>12</v>
       </c>
-      <c r="F12">
-        <v>24000</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="H12">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>13</v>
+      <c r="F12" t="n">
+        <v>24000.0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>13.0</v>
       </c>
       <c r="B13" t="s">
         <v>14</v>
@@ -1212,25 +1213,25 @@
       <c r="C13" t="s">
         <v>119</v>
       </c>
-      <c r="D13">
-        <v>100</v>
+      <c r="D13" t="n">
+        <v>35.0</v>
       </c>
       <c r="E13" t="s">
         <v>15</v>
       </c>
-      <c r="F13">
-        <v>58800</v>
-      </c>
-      <c r="G13">
-        <v>2</v>
-      </c>
-      <c r="H13">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>14</v>
+      <c r="F13" t="n">
+        <v>58800.0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>14.0</v>
       </c>
       <c r="B14" t="s">
         <v>16</v>
@@ -1238,25 +1239,25 @@
       <c r="C14" t="s">
         <v>120</v>
       </c>
-      <c r="D14">
-        <v>100</v>
+      <c r="D14" t="n">
+        <v>73.0</v>
       </c>
       <c r="E14" t="s">
         <v>17</v>
       </c>
-      <c r="F14">
-        <v>31800</v>
-      </c>
-      <c r="G14">
-        <v>2</v>
-      </c>
-      <c r="H14">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>15</v>
+      <c r="F14" t="n">
+        <v>31800.0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>15.0</v>
       </c>
       <c r="B15" t="s">
         <v>18</v>
@@ -1264,25 +1265,25 @@
       <c r="C15" t="s">
         <v>121</v>
       </c>
-      <c r="D15">
-        <v>100</v>
+      <c r="D15" t="n">
+        <v>63.0</v>
       </c>
       <c r="E15" t="s">
         <v>19</v>
       </c>
-      <c r="F15">
-        <v>29300</v>
-      </c>
-      <c r="G15">
-        <v>2</v>
-      </c>
-      <c r="H15">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>16</v>
+      <c r="F15" t="n">
+        <v>29300.0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>16.0</v>
       </c>
       <c r="B16" t="s">
         <v>20</v>
@@ -1290,25 +1291,25 @@
       <c r="C16" t="s">
         <v>122</v>
       </c>
-      <c r="D16">
-        <v>100</v>
+      <c r="D16" t="n">
+        <v>45.0</v>
       </c>
       <c r="E16" t="s">
         <v>21</v>
       </c>
-      <c r="F16">
-        <v>12600</v>
-      </c>
-      <c r="G16">
-        <v>2</v>
-      </c>
-      <c r="H16">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>17</v>
+      <c r="F16" t="n">
+        <v>12600.0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>17.0</v>
       </c>
       <c r="B17" t="s">
         <v>22</v>
@@ -1316,25 +1317,25 @@
       <c r="C17" t="s">
         <v>123</v>
       </c>
-      <c r="D17">
-        <v>100</v>
+      <c r="D17" t="n">
+        <v>40.0</v>
       </c>
       <c r="E17" t="s">
         <v>23</v>
       </c>
-      <c r="F17">
-        <v>14000</v>
-      </c>
-      <c r="G17">
-        <v>2</v>
-      </c>
-      <c r="H17">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>18</v>
+      <c r="F17" t="n">
+        <v>14000.0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>18.0</v>
       </c>
       <c r="B18" t="s">
         <v>24</v>
@@ -1342,25 +1343,25 @@
       <c r="C18" t="s">
         <v>124</v>
       </c>
-      <c r="D18">
-        <v>100</v>
+      <c r="D18" t="n">
+        <v>40.0</v>
       </c>
       <c r="E18" t="s">
         <v>25</v>
       </c>
-      <c r="F18">
-        <v>14600</v>
-      </c>
-      <c r="G18">
-        <v>2</v>
-      </c>
-      <c r="H18">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>19</v>
+      <c r="F18" t="n">
+        <v>14600.0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>9.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>19.0</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1368,25 +1369,25 @@
       <c r="C19" t="s">
         <v>125</v>
       </c>
-      <c r="D19">
-        <v>100</v>
+      <c r="D19" t="n">
+        <v>30.0</v>
       </c>
       <c r="E19" t="s">
         <v>27</v>
       </c>
-      <c r="F19">
-        <v>52800</v>
-      </c>
-      <c r="G19">
-        <v>2</v>
-      </c>
-      <c r="H19">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>20</v>
+      <c r="F19" t="n">
+        <v>52800.0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>20.0</v>
       </c>
       <c r="B20" t="s">
         <v>28</v>
@@ -1394,25 +1395,25 @@
       <c r="C20" t="s">
         <v>126</v>
       </c>
-      <c r="D20">
-        <v>100</v>
+      <c r="D20" t="n">
+        <v>100.0</v>
       </c>
       <c r="E20" t="s">
         <v>29</v>
       </c>
-      <c r="F20">
-        <v>17900</v>
-      </c>
-      <c r="G20">
-        <v>2</v>
-      </c>
-      <c r="H20">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>21</v>
+      <c r="F20" t="n">
+        <v>17900.0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>7.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>21.0</v>
       </c>
       <c r="B21" t="s">
         <v>30</v>
@@ -1420,25 +1421,25 @@
       <c r="C21" t="s">
         <v>127</v>
       </c>
-      <c r="D21">
-        <v>100</v>
+      <c r="D21" t="n">
+        <v>150.0</v>
       </c>
       <c r="E21" t="s">
         <v>31</v>
       </c>
-      <c r="F21">
-        <v>22600</v>
-      </c>
-      <c r="G21">
-        <v>2</v>
-      </c>
-      <c r="H21">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>22</v>
+      <c r="F21" t="n">
+        <v>22600.0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H21" t="n">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>22.0</v>
       </c>
       <c r="B22" t="s">
         <v>32</v>
@@ -1446,25 +1447,25 @@
       <c r="C22" t="s">
         <v>128</v>
       </c>
-      <c r="D22">
-        <v>100</v>
+      <c r="D22" t="n">
+        <v>150.0</v>
       </c>
       <c r="E22" t="s">
         <v>33</v>
       </c>
-      <c r="F22">
-        <v>68000</v>
-      </c>
-      <c r="G22">
-        <v>2</v>
-      </c>
-      <c r="H22">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>23</v>
+      <c r="F22" t="n">
+        <v>68000.0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H22" t="n">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>23.0</v>
       </c>
       <c r="B23" t="s">
         <v>34</v>
@@ -1472,25 +1473,25 @@
       <c r="C23" t="s">
         <v>129</v>
       </c>
-      <c r="D23">
-        <v>100</v>
+      <c r="D23" t="n">
+        <v>50.0</v>
       </c>
       <c r="E23" t="s">
         <v>35</v>
       </c>
-      <c r="F23">
-        <v>25000</v>
-      </c>
-      <c r="G23">
-        <v>2</v>
-      </c>
-      <c r="H23">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>24</v>
+      <c r="F23" t="n">
+        <v>25000.0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>24.0</v>
       </c>
       <c r="B24" t="s">
         <v>36</v>
@@ -1498,25 +1499,25 @@
       <c r="C24" t="s">
         <v>130</v>
       </c>
-      <c r="D24">
-        <v>100</v>
+      <c r="D24" t="n">
+        <v>50.0</v>
       </c>
       <c r="E24" t="s">
         <v>37</v>
       </c>
-      <c r="F24">
-        <v>11600</v>
-      </c>
-      <c r="G24">
-        <v>2</v>
-      </c>
-      <c r="H24">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>25</v>
+      <c r="F24" t="n">
+        <v>11600.0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H24" t="n">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>25.0</v>
       </c>
       <c r="B25" t="s">
         <v>38</v>
@@ -1524,25 +1525,25 @@
       <c r="C25" t="s">
         <v>131</v>
       </c>
-      <c r="D25">
-        <v>100</v>
+      <c r="D25" t="n">
+        <v>50.0</v>
       </c>
       <c r="E25" t="s">
         <v>39</v>
       </c>
-      <c r="F25">
-        <v>6600</v>
-      </c>
-      <c r="G25">
-        <v>2</v>
-      </c>
-      <c r="H25">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>26</v>
+      <c r="F25" t="n">
+        <v>6600.0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>26.0</v>
       </c>
       <c r="B26" t="s">
         <v>40</v>
@@ -1550,25 +1551,25 @@
       <c r="C26" t="s">
         <v>132</v>
       </c>
-      <c r="D26">
-        <v>100</v>
+      <c r="D26" t="n">
+        <v>99.0</v>
       </c>
       <c r="E26" t="s">
         <v>41</v>
       </c>
-      <c r="F26">
-        <v>12000</v>
-      </c>
-      <c r="G26">
-        <v>3</v>
-      </c>
-      <c r="H26">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>27</v>
+      <c r="F26" t="n">
+        <v>12000.0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>27.0</v>
       </c>
       <c r="B27" t="s">
         <v>42</v>
@@ -1576,25 +1577,25 @@
       <c r="C27" t="s">
         <v>133</v>
       </c>
-      <c r="D27">
-        <v>100</v>
+      <c r="D27" t="n">
+        <v>99.0</v>
       </c>
       <c r="E27" t="s">
         <v>43</v>
       </c>
-      <c r="F27">
-        <v>9000</v>
-      </c>
-      <c r="G27">
-        <v>3</v>
-      </c>
-      <c r="H27">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>28</v>
+      <c r="F27" t="n">
+        <v>9000.0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H27" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>28.0</v>
       </c>
       <c r="B28" t="s">
         <v>44</v>
@@ -1602,25 +1603,25 @@
       <c r="C28" t="s">
         <v>134</v>
       </c>
-      <c r="D28">
-        <v>100</v>
+      <c r="D28" t="n">
+        <v>99.0</v>
       </c>
       <c r="E28" t="s">
         <v>45</v>
       </c>
-      <c r="F28">
-        <v>13000</v>
-      </c>
-      <c r="G28">
-        <v>3</v>
-      </c>
-      <c r="H28">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>29</v>
+      <c r="F28" t="n">
+        <v>13000.0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>29.0</v>
       </c>
       <c r="B29" t="s">
         <v>46</v>
@@ -1628,25 +1629,25 @@
       <c r="C29" t="s">
         <v>135</v>
       </c>
-      <c r="D29">
-        <v>100</v>
+      <c r="D29" t="n">
+        <v>99.0</v>
       </c>
       <c r="E29" t="s">
         <v>47</v>
       </c>
-      <c r="F29">
-        <v>18000</v>
-      </c>
-      <c r="G29">
-        <v>3</v>
-      </c>
-      <c r="H29">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>30</v>
+      <c r="F29" t="n">
+        <v>18000.0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>30.0</v>
       </c>
       <c r="B30" t="s">
         <v>48</v>
@@ -1654,25 +1655,25 @@
       <c r="C30" t="s">
         <v>136</v>
       </c>
-      <c r="D30">
-        <v>100</v>
+      <c r="D30" t="n">
+        <v>99.0</v>
       </c>
       <c r="E30" t="s">
         <v>49</v>
       </c>
-      <c r="F30">
-        <v>13000</v>
-      </c>
-      <c r="G30">
-        <v>3</v>
-      </c>
-      <c r="H30">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>31</v>
+      <c r="F30" t="n">
+        <v>13000.0</v>
+      </c>
+      <c r="G30" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H30" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>31.0</v>
       </c>
       <c r="B31" t="s">
         <v>50</v>
@@ -1680,25 +1681,25 @@
       <c r="C31" t="s">
         <v>137</v>
       </c>
-      <c r="D31">
-        <v>100</v>
+      <c r="D31" t="n">
+        <v>99.0</v>
       </c>
       <c r="E31" t="s">
         <v>51</v>
       </c>
-      <c r="F31">
-        <v>15000</v>
-      </c>
-      <c r="G31">
-        <v>3</v>
-      </c>
-      <c r="H31">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>32</v>
+      <c r="F31" t="n">
+        <v>15000.0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>32.0</v>
       </c>
       <c r="B32" t="s">
         <v>52</v>
@@ -1706,25 +1707,25 @@
       <c r="C32" t="s">
         <v>138</v>
       </c>
-      <c r="D32">
-        <v>100</v>
+      <c r="D32" t="n">
+        <v>99.0</v>
       </c>
       <c r="E32" t="s">
         <v>53</v>
       </c>
-      <c r="F32">
-        <v>11000</v>
-      </c>
-      <c r="G32">
-        <v>3</v>
-      </c>
-      <c r="H32">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>33</v>
+      <c r="F32" t="n">
+        <v>11000.0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>33.0</v>
       </c>
       <c r="B33" t="s">
         <v>54</v>
@@ -1732,25 +1733,25 @@
       <c r="C33" t="s">
         <v>138</v>
       </c>
-      <c r="D33">
-        <v>100</v>
+      <c r="D33" t="n">
+        <v>99.0</v>
       </c>
       <c r="E33" t="s">
         <v>55</v>
       </c>
-      <c r="F33">
-        <v>11000</v>
-      </c>
-      <c r="G33">
-        <v>3</v>
-      </c>
-      <c r="H33">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>34</v>
+      <c r="F33" t="n">
+        <v>11000.0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>34.0</v>
       </c>
       <c r="B34" t="s">
         <v>56</v>
@@ -1758,25 +1759,25 @@
       <c r="C34" t="s">
         <v>139</v>
       </c>
-      <c r="D34">
-        <v>100</v>
+      <c r="D34" t="n">
+        <v>99.0</v>
       </c>
       <c r="E34" t="s">
         <v>57</v>
       </c>
-      <c r="F34">
-        <v>16000</v>
-      </c>
-      <c r="G34">
-        <v>3</v>
-      </c>
-      <c r="H34">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <v>35</v>
+      <c r="F34" t="n">
+        <v>16000.0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>35.0</v>
       </c>
       <c r="B35" t="s">
         <v>58</v>
@@ -1784,25 +1785,25 @@
       <c r="C35" t="s">
         <v>140</v>
       </c>
-      <c r="D35">
-        <v>100</v>
+      <c r="D35" t="n">
+        <v>99.0</v>
       </c>
       <c r="E35" t="s">
         <v>59</v>
       </c>
-      <c r="F35">
-        <v>20000</v>
-      </c>
-      <c r="G35">
-        <v>3</v>
-      </c>
-      <c r="H35">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>36</v>
+      <c r="F35" t="n">
+        <v>20000.0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>36.0</v>
       </c>
       <c r="B36" t="s">
         <v>60</v>
@@ -1810,25 +1811,25 @@
       <c r="C36" t="s">
         <v>61</v>
       </c>
-      <c r="D36">
-        <v>100</v>
+      <c r="D36" t="n">
+        <v>99.0</v>
       </c>
       <c r="E36" t="s">
         <v>62</v>
       </c>
-      <c r="F36">
-        <v>13000</v>
-      </c>
-      <c r="G36">
-        <v>3</v>
-      </c>
-      <c r="H36">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <v>37</v>
+      <c r="F36" t="n">
+        <v>13000.0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>37.0</v>
       </c>
       <c r="B37" t="s">
         <v>63</v>
@@ -1836,25 +1837,25 @@
       <c r="C37" t="s">
         <v>141</v>
       </c>
-      <c r="D37">
-        <v>100</v>
+      <c r="D37" t="n">
+        <v>99.0</v>
       </c>
       <c r="E37" t="s">
         <v>64</v>
       </c>
-      <c r="F37">
-        <v>20000</v>
-      </c>
-      <c r="G37">
-        <v>3</v>
-      </c>
-      <c r="H37">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38">
-        <v>38</v>
+      <c r="F37" t="n">
+        <v>20000.0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>38.0</v>
       </c>
       <c r="B38" t="s">
         <v>65</v>
@@ -1862,25 +1863,25 @@
       <c r="C38" t="s">
         <v>142</v>
       </c>
-      <c r="D38">
-        <v>100</v>
+      <c r="D38" t="n">
+        <v>99.0</v>
       </c>
       <c r="E38" t="s">
         <v>66</v>
       </c>
-      <c r="F38">
-        <v>87000</v>
-      </c>
-      <c r="G38">
-        <v>4</v>
-      </c>
-      <c r="H38">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39">
-        <v>39</v>
+      <c r="F38" t="n">
+        <v>87000.0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>39.0</v>
       </c>
       <c r="B39" t="s">
         <v>67</v>
@@ -1888,25 +1889,25 @@
       <c r="C39" t="s">
         <v>143</v>
       </c>
-      <c r="D39">
-        <v>100</v>
+      <c r="D39" t="n">
+        <v>99.0</v>
       </c>
       <c r="E39" t="s">
         <v>68</v>
       </c>
-      <c r="F39">
-        <v>79000</v>
-      </c>
-      <c r="G39">
-        <v>4</v>
-      </c>
-      <c r="H39">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40">
-        <v>40</v>
+      <c r="F39" t="n">
+        <v>79000.0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>40.0</v>
       </c>
       <c r="B40" t="s">
         <v>69</v>
@@ -1914,25 +1915,25 @@
       <c r="C40" t="s">
         <v>144</v>
       </c>
-      <c r="D40">
-        <v>100</v>
+      <c r="D40" t="n">
+        <v>99.0</v>
       </c>
       <c r="E40" t="s">
         <v>70</v>
       </c>
-      <c r="F40">
-        <v>153000</v>
-      </c>
-      <c r="G40">
-        <v>4</v>
-      </c>
-      <c r="H40">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41">
-        <v>41</v>
+      <c r="F40" t="n">
+        <v>153000.0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>41.0</v>
       </c>
       <c r="B41" t="s">
         <v>71</v>
@@ -1940,25 +1941,25 @@
       <c r="C41" t="s">
         <v>145</v>
       </c>
-      <c r="D41">
-        <v>100</v>
+      <c r="D41" t="n">
+        <v>99.0</v>
       </c>
       <c r="E41" t="s">
         <v>72</v>
       </c>
-      <c r="F41">
-        <v>32000</v>
-      </c>
-      <c r="G41">
-        <v>4</v>
-      </c>
-      <c r="H41">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42">
-        <v>42</v>
+      <c r="F41" t="n">
+        <v>32000.0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>42.0</v>
       </c>
       <c r="B42" t="s">
         <v>73</v>
@@ -1966,25 +1967,25 @@
       <c r="C42" t="s">
         <v>145</v>
       </c>
-      <c r="D42">
-        <v>100</v>
+      <c r="D42" t="n">
+        <v>99.0</v>
       </c>
       <c r="E42" t="s">
         <v>74</v>
       </c>
-      <c r="F42">
-        <v>39000</v>
-      </c>
-      <c r="G42">
-        <v>4</v>
-      </c>
-      <c r="H42">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43">
-        <v>43</v>
+      <c r="F42" t="n">
+        <v>39000.0</v>
+      </c>
+      <c r="G42" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>43.0</v>
       </c>
       <c r="B43" t="s">
         <v>75</v>
@@ -1992,25 +1993,25 @@
       <c r="C43" t="s">
         <v>76</v>
       </c>
-      <c r="D43">
-        <v>100</v>
+      <c r="D43" t="n">
+        <v>99.0</v>
       </c>
       <c r="E43" t="s">
         <v>77</v>
       </c>
-      <c r="F43">
-        <v>39000</v>
-      </c>
-      <c r="G43">
-        <v>4</v>
-      </c>
-      <c r="H43">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44">
-        <v>44</v>
+      <c r="F43" t="n">
+        <v>39000.0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>44.0</v>
       </c>
       <c r="B44" t="s">
         <v>78</v>
@@ -2018,25 +2019,25 @@
       <c r="C44" t="s">
         <v>146</v>
       </c>
-      <c r="D44">
-        <v>100</v>
+      <c r="D44" t="n">
+        <v>99.0</v>
       </c>
       <c r="E44" t="s">
         <v>79</v>
       </c>
-      <c r="F44">
-        <v>14300</v>
-      </c>
-      <c r="G44">
-        <v>4</v>
-      </c>
-      <c r="H44">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A45">
-        <v>45</v>
+      <c r="F44" t="n">
+        <v>14300.0</v>
+      </c>
+      <c r="G44" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>45.0</v>
       </c>
       <c r="B45" t="s">
         <v>80</v>
@@ -2044,25 +2045,25 @@
       <c r="C45" t="s">
         <v>147</v>
       </c>
-      <c r="D45">
-        <v>100</v>
+      <c r="D45" t="n">
+        <v>99.0</v>
       </c>
       <c r="E45" t="s">
         <v>81</v>
       </c>
-      <c r="F45">
-        <v>2800</v>
-      </c>
-      <c r="G45">
-        <v>4</v>
-      </c>
-      <c r="H45">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A46">
-        <v>46</v>
+      <c r="F45" t="n">
+        <v>2800.0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>46.0</v>
       </c>
       <c r="B46" t="s">
         <v>82</v>
@@ -2070,25 +2071,25 @@
       <c r="C46" t="s">
         <v>148</v>
       </c>
-      <c r="D46">
-        <v>100</v>
+      <c r="D46" t="n">
+        <v>99.0</v>
       </c>
       <c r="E46" t="s">
         <v>83</v>
       </c>
-      <c r="F46">
-        <v>15300</v>
-      </c>
-      <c r="G46">
-        <v>4</v>
-      </c>
-      <c r="H46">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A47">
-        <v>47</v>
+      <c r="F46" t="n">
+        <v>15300.0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>47.0</v>
       </c>
       <c r="B47" t="s">
         <v>84</v>
@@ -2096,25 +2097,25 @@
       <c r="C47" t="s">
         <v>149</v>
       </c>
-      <c r="D47">
-        <v>100</v>
+      <c r="D47" t="n">
+        <v>99.0</v>
       </c>
       <c r="E47" t="s">
         <v>85</v>
       </c>
-      <c r="F47">
-        <v>17100</v>
-      </c>
-      <c r="G47">
-        <v>4</v>
-      </c>
-      <c r="H47">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A48">
-        <v>48</v>
+      <c r="F47" t="n">
+        <v>17100.0</v>
+      </c>
+      <c r="G47" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="H47" t="n">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>48.0</v>
       </c>
       <c r="B48" t="s">
         <v>86</v>
@@ -2122,25 +2123,25 @@
       <c r="C48" t="s">
         <v>150</v>
       </c>
-      <c r="D48">
-        <v>100</v>
+      <c r="D48" t="n">
+        <v>79.0</v>
       </c>
       <c r="E48" t="s">
         <v>87</v>
       </c>
-      <c r="F48">
-        <v>16000</v>
-      </c>
-      <c r="G48">
-        <v>5</v>
-      </c>
-      <c r="H48">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A49">
-        <v>49</v>
+      <c r="F48" t="n">
+        <v>16000.0</v>
+      </c>
+      <c r="G48" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="H48" t="n">
+        <v>14.0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>49.0</v>
       </c>
       <c r="B49" t="s">
         <v>88</v>
@@ -2148,25 +2149,25 @@
       <c r="C49" t="s">
         <v>151</v>
       </c>
-      <c r="D49">
-        <v>100</v>
+      <c r="D49" t="n">
+        <v>59.0</v>
       </c>
       <c r="E49" t="s">
         <v>89</v>
       </c>
-      <c r="F49">
-        <v>15900</v>
-      </c>
-      <c r="G49">
-        <v>5</v>
-      </c>
-      <c r="H49">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A50">
-        <v>50</v>
+      <c r="F49" t="n">
+        <v>15900.0</v>
+      </c>
+      <c r="G49" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="H49" t="n">
+        <v>15.0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>50.0</v>
       </c>
       <c r="B50" t="s">
         <v>90</v>
@@ -2174,25 +2175,25 @@
       <c r="C50" t="s">
         <v>152</v>
       </c>
-      <c r="D50">
-        <v>100</v>
+      <c r="D50" t="n">
+        <v>39.0</v>
       </c>
       <c r="E50" t="s">
         <v>91</v>
       </c>
-      <c r="F50">
-        <v>166000</v>
-      </c>
-      <c r="G50">
-        <v>5</v>
-      </c>
-      <c r="H50">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A51">
-        <v>51</v>
+      <c r="F50" t="n">
+        <v>166000.0</v>
+      </c>
+      <c r="G50" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="H50" t="n">
+        <v>16.0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>51.0</v>
       </c>
       <c r="B51" t="s">
         <v>92</v>
@@ -2200,25 +2201,25 @@
       <c r="C51" t="s">
         <v>153</v>
       </c>
-      <c r="D51">
-        <v>100</v>
+      <c r="D51" t="n">
+        <v>29.0</v>
       </c>
       <c r="E51" t="s">
         <v>93</v>
       </c>
-      <c r="F51">
-        <v>47000</v>
-      </c>
-      <c r="G51">
-        <v>5</v>
-      </c>
-      <c r="H51">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A52">
-        <v>52</v>
+      <c r="F51" t="n">
+        <v>47000.0</v>
+      </c>
+      <c r="G51" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="H51" t="n">
+        <v>16.0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>52.0</v>
       </c>
       <c r="B52" t="s">
         <v>163</v>
@@ -2226,25 +2227,25 @@
       <c r="C52" t="s">
         <v>164</v>
       </c>
-      <c r="D52">
-        <v>100</v>
+      <c r="D52" t="n">
+        <v>29.0</v>
       </c>
       <c r="E52" t="s">
         <v>165</v>
       </c>
-      <c r="F52">
-        <v>26900</v>
-      </c>
-      <c r="G52">
-        <v>5</v>
-      </c>
-      <c r="H52">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A53">
-        <v>53</v>
+      <c r="F52" t="n">
+        <v>26900.0</v>
+      </c>
+      <c r="G52" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="H52" t="n">
+        <v>17.0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>53.0</v>
       </c>
       <c r="B53" t="s">
         <v>94</v>
@@ -2252,25 +2253,25 @@
       <c r="C53" t="s">
         <v>154</v>
       </c>
-      <c r="D53">
-        <v>100</v>
+      <c r="D53" t="n">
+        <v>69.0</v>
       </c>
       <c r="E53" t="s">
         <v>95</v>
       </c>
-      <c r="F53">
-        <v>28000</v>
-      </c>
-      <c r="G53">
-        <v>5</v>
-      </c>
-      <c r="H53">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A54">
-        <v>54</v>
+      <c r="F53" t="n">
+        <v>28000.0</v>
+      </c>
+      <c r="G53" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="H53" t="n">
+        <v>16.0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>54.0</v>
       </c>
       <c r="B54" t="s">
         <v>96</v>
@@ -2278,25 +2279,25 @@
       <c r="C54" t="s">
         <v>155</v>
       </c>
-      <c r="D54">
-        <v>100</v>
+      <c r="D54" t="n">
+        <v>29.0</v>
       </c>
       <c r="E54" t="s">
         <v>97</v>
       </c>
-      <c r="F54">
-        <v>78000</v>
-      </c>
-      <c r="G54">
-        <v>5</v>
-      </c>
-      <c r="H54">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A55">
-        <v>55</v>
+      <c r="F54" t="n">
+        <v>78000.0</v>
+      </c>
+      <c r="G54" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="H54" t="n">
+        <v>16.0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>55.0</v>
       </c>
       <c r="B55" t="s">
         <v>98</v>
@@ -2304,25 +2305,25 @@
       <c r="C55" t="s">
         <v>156</v>
       </c>
-      <c r="D55">
-        <v>100</v>
+      <c r="D55" t="n">
+        <v>120.0</v>
       </c>
       <c r="E55" t="s">
         <v>99</v>
       </c>
-      <c r="F55">
-        <v>25900</v>
-      </c>
-      <c r="G55">
-        <v>5</v>
-      </c>
-      <c r="H55">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A56">
-        <v>56</v>
+      <c r="F55" t="n">
+        <v>25900.0</v>
+      </c>
+      <c r="G55" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="H55" t="n">
+        <v>18.0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>56.0</v>
       </c>
       <c r="B56" t="s">
         <v>166</v>
@@ -2330,25 +2331,25 @@
       <c r="C56" t="s">
         <v>156</v>
       </c>
-      <c r="D56">
-        <v>100</v>
+      <c r="D56" t="n">
+        <v>120.0</v>
       </c>
       <c r="E56" t="s">
         <v>167</v>
       </c>
-      <c r="F56">
-        <v>29000</v>
-      </c>
-      <c r="G56">
-        <v>5</v>
-      </c>
-      <c r="H56">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A57">
-        <v>57</v>
+      <c r="F56" t="n">
+        <v>29000.0</v>
+      </c>
+      <c r="G56" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="H56" t="n">
+        <v>18.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>57.0</v>
       </c>
       <c r="B57" t="s">
         <v>168</v>
@@ -2356,25 +2357,25 @@
       <c r="C57" t="s">
         <v>169</v>
       </c>
-      <c r="D57">
-        <v>100</v>
+      <c r="D57" t="n">
+        <v>90.0</v>
       </c>
       <c r="E57" t="s">
         <v>170</v>
       </c>
-      <c r="F57">
-        <v>60000</v>
-      </c>
-      <c r="G57">
-        <v>5</v>
-      </c>
-      <c r="H57">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A58">
-        <v>58</v>
+      <c r="F57" t="n">
+        <v>60000.0</v>
+      </c>
+      <c r="G57" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="H57" t="n">
+        <v>19.0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>58.0</v>
       </c>
       <c r="B58" t="s">
         <v>171</v>
@@ -2382,25 +2383,25 @@
       <c r="C58" t="s">
         <v>172</v>
       </c>
-      <c r="D58">
-        <v>100</v>
+      <c r="D58" t="n">
+        <v>50.0</v>
       </c>
       <c r="E58" t="s">
         <v>100</v>
       </c>
-      <c r="F58">
-        <v>42000</v>
-      </c>
-      <c r="G58">
-        <v>5</v>
-      </c>
-      <c r="H58">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A59">
-        <v>59</v>
+      <c r="F58" t="n">
+        <v>42000.0</v>
+      </c>
+      <c r="G58" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="H58" t="n">
+        <v>19.0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>59.0</v>
       </c>
       <c r="B59" t="s">
         <v>173</v>
@@ -2408,20 +2409,20 @@
       <c r="C59" t="s">
         <v>174</v>
       </c>
-      <c r="D59">
-        <v>100</v>
+      <c r="D59" t="n">
+        <v>23.0</v>
       </c>
       <c r="E59" t="s">
         <v>175</v>
       </c>
-      <c r="F59">
-        <v>126000</v>
-      </c>
-      <c r="G59">
-        <v>5</v>
-      </c>
-      <c r="H59">
-        <v>19</v>
+      <c r="F59" t="n">
+        <v>126000.0</v>
+      </c>
+      <c r="G59" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="H59" t="n">
+        <v>19.0</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
